--- a/resources/wheels/178 - Норка.xlsx
+++ b/resources/wheels/178 - Норка.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -684,16 +684,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -906,9 +906,9 @@
       <c r="F16" s="22">
         <v>2.8</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>11</v>
+        <v>15.859</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -962,7 +962,9 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
     </row>
@@ -974,7 +976,9 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G21" s="22"/>
       <c r="H21" s="5"/>
     </row>
@@ -986,7 +990,9 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G22" s="22"/>
       <c r="H22" s="5"/>
     </row>
@@ -1562,16 +1568,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1784,9 +1790,9 @@
       <c r="F16" s="22">
         <v>2.8</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>11</v>
+        <v>15.859</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1840,7 +1846,9 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
     </row>
@@ -1852,7 +1860,9 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G21" s="22"/>
       <c r="H21" s="5"/>
     </row>
@@ -1864,7 +1874,9 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G22" s="22"/>
       <c r="H22" s="5"/>
     </row>
@@ -2440,16 +2452,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,9 +2680,9 @@
       <c r="F16" s="22">
         <v>13</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.700000000000003</v>
+        <v>37.559000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2780,7 +2792,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -2792,7 +2806,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -2804,7 +2820,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -3344,16 +3362,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3572,9 +3590,9 @@
       <c r="F16" s="22">
         <v>13</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.700000000000003</v>
+        <v>37.559000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3684,7 +3702,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -3696,7 +3716,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -3708,7 +3730,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -4248,16 +4272,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4476,9 +4500,9 @@
       <c r="F16" s="22">
         <v>13</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.700000000000003</v>
+        <v>37.559000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4588,7 +4612,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -4600,7 +4626,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -4612,7 +4640,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -5152,16 +5182,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,9 +5410,9 @@
       <c r="F16" s="22">
         <v>13</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>32.700000000000003</v>
+        <v>37.559000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5492,7 +5522,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -5504,7 +5536,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -5516,7 +5550,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -6056,16 +6092,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6282,9 +6318,9 @@
       <c r="F16" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.6</v>
+        <v>98.459</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6394,7 +6430,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="n">
+        <v>2.467</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -6406,7 +6444,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>1.302</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -6418,7 +6458,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/178 - Норка.xlsx
+++ b/resources/wheels/178 - Норка.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="55">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -154,6 +154,42 @@
   </si>
   <si>
     <t>AM 9776-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -678,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,7 +944,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.859</v>
+        <v>25.266000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -962,8 +998,8 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22" t="n">
-        <v>2.467</v>
+      <c r="F20" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
@@ -976,7 +1012,7 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="22">
         <v>1.302</v>
       </c>
       <c r="G21" s="22"/>
@@ -990,8 +1026,8 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22" t="n">
-        <v>1.09</v>
+      <c r="F22" s="22">
+        <v>1.0900000000000001</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="5"/>
@@ -1004,7 +1040,9 @@
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G23" s="22"/>
       <c r="H23" s="5"/>
     </row>
@@ -1016,7 +1054,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -1028,7 +1068,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>2.92</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -1037,7 +1079,12 @@
       <c r="B26" s="5"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="22" t="n">
+        <v>2.166</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -1046,6 +1093,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
+      <c r="E27" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
@@ -1055,6 +1105,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
+      <c r="E28" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
@@ -1064,6 +1117,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
+      <c r="E29" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
@@ -1073,7 +1129,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1083,7 +1141,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1093,7 +1153,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1103,7 +1165,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1113,7 +1177,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1123,7 +1189,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1133,7 +1201,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1143,7 +1213,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1563,7 +1635,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1864,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.859</v>
+        <v>25.266000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1846,8 +1918,8 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="22" t="n">
-        <v>2.467</v>
+      <c r="F20" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
@@ -1860,7 +1932,7 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="22">
         <v>1.302</v>
       </c>
       <c r="G21" s="22"/>
@@ -1874,8 +1946,8 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22" t="n">
-        <v>1.09</v>
+      <c r="F22" s="22">
+        <v>1.0900000000000001</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="5"/>
@@ -1888,7 +1960,9 @@
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G23" s="22"/>
       <c r="H23" s="5"/>
     </row>
@@ -1900,7 +1974,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
     </row>
@@ -1912,7 +1988,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="n">
+        <v>2.92</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="5"/>
     </row>
@@ -1921,7 +1999,12 @@
       <c r="B26" s="5"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="22" t="n">
+        <v>2.166</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
     </row>
@@ -1930,6 +2013,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
+      <c r="E27" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
@@ -1939,6 +2025,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
+      <c r="E28" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
@@ -1948,6 +2037,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
+      <c r="E29" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="5"/>
@@ -1957,7 +2049,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1967,7 +2061,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1977,7 +2073,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1987,7 +2085,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1997,7 +2097,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2007,7 +2109,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2017,7 +2121,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2027,7 +2133,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2447,7 +2555,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2790,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.559000000000005</v>
+        <v>42.956</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2792,8 +2900,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>2.467</v>
+      <c r="F24" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -2806,7 +2914,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>1.302</v>
       </c>
       <c r="G25" s="22"/>
@@ -2818,10 +2926,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>1.09</v>
+        <v>2.166</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -2832,9 +2940,11 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -2844,9 +2954,11 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -2856,7 +2968,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -2867,7 +2979,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -2877,7 +2991,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2887,7 +3003,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2897,7 +3015,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2907,7 +3027,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2917,7 +3039,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2927,7 +3051,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2937,7 +3063,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3357,7 +3485,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3592,7 +3720,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.559000000000005</v>
+        <v>42.956</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3702,8 +3830,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>2.467</v>
+      <c r="F24" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -3716,7 +3844,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>1.302</v>
       </c>
       <c r="G25" s="22"/>
@@ -3728,10 +3856,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>1.09</v>
+        <v>2.166</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -3742,9 +3870,11 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -3754,9 +3884,11 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -3766,7 +3898,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -3777,7 +3909,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3787,7 +3921,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3797,7 +3933,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3807,7 +3945,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3817,7 +3957,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3827,7 +3969,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3837,7 +3981,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3847,7 +3993,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4267,7 +4415,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4502,7 +4650,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.559000000000005</v>
+        <v>42.956</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4612,8 +4760,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>2.467</v>
+      <c r="F24" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -4626,7 +4774,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>1.302</v>
       </c>
       <c r="G25" s="22"/>
@@ -4638,10 +4786,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>1.09</v>
+        <v>2.166</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -4652,9 +4800,11 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -4664,9 +4814,11 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -4676,7 +4828,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -4687,7 +4839,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4697,7 +4851,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4707,7 +4863,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4717,7 +4875,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4727,7 +4887,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4737,7 +4899,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4747,7 +4911,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4757,7 +4923,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5177,7 +5345,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5580,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.559000000000005</v>
+        <v>42.956</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5522,8 +5690,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>2.467</v>
+      <c r="F24" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -5536,7 +5704,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>1.302</v>
       </c>
       <c r="G25" s="22"/>
@@ -5548,10 +5716,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>1.09</v>
+        <v>2.166</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -5562,9 +5730,11 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -5574,9 +5744,11 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -5586,7 +5758,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -5597,7 +5769,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -5607,7 +5781,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5617,7 +5793,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5627,7 +5805,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5637,7 +5817,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5647,7 +5829,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5657,7 +5841,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5667,7 +5853,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6087,7 +6275,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6320,7 +6508,7 @@
       </c>
       <c r="G16" s="22" t="n">
         <f>SUM(F16:F100)</f>
-        <v>98.459</v>
+        <v>103.856</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6430,8 +6618,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>2.467</v>
+      <c r="F24" s="22">
+        <v>2.4670000000000001</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="5"/>
@@ -6444,7 +6632,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="22">
         <v>1.302</v>
       </c>
       <c r="G25" s="22"/>
@@ -6456,10 +6644,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="n">
-        <v>1.09</v>
+        <v>2.166</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="5"/>
@@ -6470,9 +6658,11 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2.133</v>
+      </c>
       <c r="G27" s="22"/>
       <c r="H27" s="5"/>
     </row>
@@ -6482,9 +6672,11 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2.1880000000000002</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="5"/>
     </row>
@@ -6494,7 +6686,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -6505,7 +6697,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -6515,7 +6709,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6525,7 +6721,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6535,7 +6733,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6545,7 +6745,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6555,7 +6757,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6565,7 +6769,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6575,7 +6781,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
